--- a/data/trans_orig/Q5410A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Habitat-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1983</v>
+        <v>2028</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2205274073016289</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6391320215062004</v>
+        <v>0.65369137279647</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>1554</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>420</v>
+        <v>573</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3544</v>
+        <v>3562</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.16364119444593</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04423284870868348</v>
+        <v>0.06031372541853544</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3730798067767353</v>
+        <v>0.375010288659561</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -783,19 +783,19 @@
         <v>2239</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>773</v>
+        <v>929</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4278</v>
+        <v>4545</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1776492855777951</v>
+        <v>0.1776492855777952</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06130136319761931</v>
+        <v>0.07372512224305748</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3394975990620425</v>
+        <v>0.3606212131266238</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1945</v>
+        <v>2004</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1718033313389049</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6269152906228765</v>
+        <v>0.6458606644415587</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -833,19 +833,19 @@
         <v>3828</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1976</v>
+        <v>2042</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5874</v>
+        <v>6049</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4030295752551701</v>
+        <v>0.4030295752551702</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2080165855359811</v>
+        <v>0.214935964234788</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6183384658201886</v>
+        <v>0.6368270376133749</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -854,19 +854,19 @@
         <v>4361</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2397</v>
+        <v>2261</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6787</v>
+        <v>6851</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3460906768075925</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1902186630811306</v>
+        <v>0.1794114740886783</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.538544311557269</v>
+        <v>0.5436088920640396</v>
       </c>
     </row>
     <row r="6">
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1724</v>
+        <v>1942</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1587214259005874</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.555537430711105</v>
+        <v>0.6259958250586467</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -951,19 +951,19 @@
         <v>2372</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>805</v>
+        <v>600</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4660</v>
+        <v>4868</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2496702518867189</v>
+        <v>0.249670251886719</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08474470755744005</v>
+        <v>0.06315441612346695</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4906179575265648</v>
+        <v>0.5125189386374188</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -972,19 +972,19 @@
         <v>2864</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1112</v>
+        <v>1032</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5556</v>
+        <v>5320</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.227274325373178</v>
+        <v>0.2272743253731781</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08825058648264747</v>
+        <v>0.08192956494566409</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4408955865946551</v>
+        <v>0.4221919535609966</v>
       </c>
     </row>
     <row r="8">
@@ -1001,19 +1001,19 @@
         <v>1393</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2735</v>
+        <v>2601</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4489478354588787</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1416921136854307</v>
+        <v>0.1325234318079637</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.881553231611526</v>
+        <v>0.8382126103763301</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1022,19 +1022,19 @@
         <v>1745</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4111</v>
+        <v>3958</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.183658978412181</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05626231665837533</v>
+        <v>0.05461382763729405</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4327850032587021</v>
+        <v>0.4167123060443446</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1043,19 +1043,19 @@
         <v>3138</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1365</v>
+        <v>1349</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5689</v>
+        <v>5906</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2489857122414343</v>
+        <v>0.2489857122414344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1083264587145915</v>
+        <v>0.1070531599304244</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4514517906717746</v>
+        <v>0.4686362288350665</v>
       </c>
     </row>
     <row r="9">
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1806</v>
+        <v>2286</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1097318068116019</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4153685499189633</v>
+        <v>0.525783080997574</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1168,19 +1168,19 @@
         <v>2864</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1095</v>
+        <v>1031</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5350</v>
+        <v>5131</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2120818772139595</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08112088704719245</v>
+        <v>0.07634641632984775</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.396175594589411</v>
+        <v>0.3799444939669953</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1189,19 +1189,19 @@
         <v>3341</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1343</v>
+        <v>1379</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6083</v>
+        <v>6190</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1871520046464576</v>
+        <v>0.1871520046464577</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07521848836495496</v>
+        <v>0.07724160219683616</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3407463148042451</v>
+        <v>0.3467128966502943</v>
       </c>
     </row>
     <row r="11">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3259</v>
+        <v>3316</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3132770248691565</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7495802248031509</v>
+        <v>0.7627055230261351</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1239,19 +1239,19 @@
         <v>3392</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1631</v>
+        <v>1379</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6208</v>
+        <v>6163</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2512160584519572</v>
+        <v>0.2512160584519573</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1208064934052925</v>
+        <v>0.1021423175985863</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4596954754360104</v>
+        <v>0.4563559674402313</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1260,19 +1260,19 @@
         <v>4755</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2358</v>
+        <v>2327</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7953</v>
+        <v>8088</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2663325305571015</v>
+        <v>0.2663325305571014</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1320636910976251</v>
+        <v>0.1303316186142458</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4454697944730064</v>
+        <v>0.4530829434620019</v>
       </c>
     </row>
     <row r="12">
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2697</v>
+        <v>2410</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.04382251408665122</v>
+        <v>0.04382251408665123</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1997428556015927</v>
+        <v>0.1784997187261838</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2856</v>
+        <v>3058</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03314846484102801</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1599577547418885</v>
+        <v>0.1712904494794437</v>
       </c>
     </row>
     <row r="13">
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7554799359467402</v>
+        <v>0.7554775851866694</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1373,19 +1373,19 @@
         <v>3117</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1207</v>
+        <v>1098</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6175</v>
+        <v>6324</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2308518116810389</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08935386705216768</v>
+        <v>0.08131364831567081</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4573067298466516</v>
+        <v>0.4683077765999443</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1394,19 +1394,19 @@
         <v>4510</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2111</v>
+        <v>2061</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8043</v>
+        <v>7770</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2526257501528508</v>
+        <v>0.2526257501528509</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1182618050386887</v>
+        <v>0.1154642800200189</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4505219659102295</v>
+        <v>0.4352557319590729</v>
       </c>
     </row>
     <row r="14">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3010</v>
+        <v>3115</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2567460342498774</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6923010316469292</v>
+        <v>0.7164919161952484</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1444,19 +1444,19 @@
         <v>3538</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1567</v>
+        <v>1595</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6222</v>
+        <v>6405</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2620277385663931</v>
+        <v>0.2620277385663932</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1160124891534427</v>
+        <v>0.1181023282339509</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4607631876587671</v>
+        <v>0.4743293777595158</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -1465,19 +1465,19 @@
         <v>4655</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2156</v>
+        <v>2531</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7885</v>
+        <v>7940</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2607412498025619</v>
+        <v>0.260741249802562</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1207504488987664</v>
+        <v>0.1417489943616314</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.44168046962604</v>
+        <v>0.4447860093646277</v>
       </c>
     </row>
     <row r="15">
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4731</v>
+        <v>5071</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2003149336598438</v>
+        <v>0.2003149336598439</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5331949969883605</v>
+        <v>0.571463798888643</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5565</v>
+        <v>5518</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1363267509675102</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4268739981258293</v>
+        <v>0.4232544684024246</v>
       </c>
     </row>
     <row r="17">
@@ -1632,7 +1632,7 @@
         <v>3274</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>855</v>
+        <v>628</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>4165</v>
@@ -1641,7 +1641,7 @@
         <v>0.7859996869511737</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2052119677760494</v>
+        <v>0.1507897424534604</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1653,19 +1653,19 @@
         <v>3263</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5642</v>
+        <v>5790</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3677631530551465</v>
+        <v>0.3677631530551466</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1306642948096567</v>
+        <v>0.1310145562214652</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6358699281701692</v>
+        <v>0.6525685479252656</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1674,19 +1674,19 @@
         <v>6536</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9751</v>
+        <v>9794</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5013637551200552</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2655458060913166</v>
+        <v>0.2654781700486737</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7479551285354836</v>
+        <v>0.7512833130807046</v>
       </c>
     </row>
     <row r="18">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3421</v>
+        <v>3813</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1410881135843836</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3855555137054217</v>
+        <v>0.4297638981221925</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4360</v>
+        <v>3916</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09601922220015596</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3344543818285812</v>
+        <v>0.3004077285525368</v>
       </c>
     </row>
     <row r="20">
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3310</v>
+        <v>3647</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2140003130488264</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7948304349876346</v>
+        <v>0.8756302620269251</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1834,19 +1834,19 @@
         <v>2581</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4900</v>
+        <v>5185</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2908337997006261</v>
+        <v>0.2908337997006262</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07092124533608239</v>
+        <v>0.07274518430230757</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5522504334164225</v>
+        <v>0.5843818233452803</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1855,19 +1855,19 @@
         <v>3472</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1215</v>
+        <v>1327</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6589</v>
+        <v>6671</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2662902717122786</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09321208144024744</v>
+        <v>0.1017547210256988</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5054031052622933</v>
+        <v>0.5117353402333923</v>
       </c>
     </row>
     <row r="21">
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2442</v>
+        <v>3023</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2945524855076119</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6492536141727269</v>
+        <v>0.8036954145977024</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -1980,19 +1980,19 @@
         <v>2195</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>652</v>
+        <v>563</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5240</v>
+        <v>4712</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1418562729488493</v>
+        <v>0.1418562729488494</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04211646004977834</v>
+        <v>0.0364086180862126</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3385866879734433</v>
+        <v>0.3044566786629468</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -2001,19 +2001,19 @@
         <v>3303</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1429</v>
+        <v>1291</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6272</v>
+        <v>6530</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1717072994966327</v>
+        <v>0.1717072994966326</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07427645007701246</v>
+        <v>0.06713299527073206</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3260416619358462</v>
+        <v>0.3394718875774888</v>
       </c>
     </row>
     <row r="23">
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3539048958263519</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8347903468027996</v>
+        <v>0.8338515636873213</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -2051,19 +2051,19 @@
         <v>3679</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1497</v>
+        <v>1463</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7040</v>
+        <v>6999</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2376956115470823</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09671582998167298</v>
+        <v>0.09454872090912192</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4549071398896519</v>
+        <v>0.4522701928859389</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -2072,19 +2072,19 @@
         <v>5010</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2476</v>
+        <v>2286</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>8822</v>
+        <v>8825</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2604137024020497</v>
+        <v>0.2604137024020496</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1286889646498498</v>
+        <v>0.1188230961545435</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4586034001611868</v>
+        <v>0.4587450365525954</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5704</v>
+        <v>5331</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1045861478372213</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3685634863581381</v>
+        <v>0.3444377865463076</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5795</v>
+        <v>5788</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.08414029771885091</v>
+        <v>0.08414029771885086</v>
       </c>
       <c r="V24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.301234620533866</v>
+        <v>0.3008573424111956</v>
       </c>
     </row>
     <row r="25">
@@ -2167,16 +2167,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2615</v>
+        <v>2588</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1751624069345233</v>
+        <v>0.1751624069345232</v>
       </c>
       <c r="H25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6951826741566582</v>
+        <v>0.6880248939519168</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2185,19 +2185,19 @@
         <v>5684</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2653</v>
+        <v>2676</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9557</v>
+        <v>9579</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3672473405989758</v>
+        <v>0.3672473405989759</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1714483955902211</v>
+        <v>0.1728942013270904</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6175238143492753</v>
+        <v>0.618955948855225</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -2206,19 +2206,19 @@
         <v>6342</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2942</v>
+        <v>3099</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10524</v>
+        <v>10437</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3296960984420025</v>
+        <v>0.3296960984420023</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1529397922039392</v>
+        <v>0.1611166414199282</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5470564966710867</v>
+        <v>0.5425312576562464</v>
       </c>
     </row>
     <row r="26">
@@ -2238,16 +2238,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3036</v>
+        <v>2610</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.176380211731513</v>
+        <v>0.1763802117315129</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8071541025452257</v>
+        <v>0.6939836289535942</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2256,19 +2256,19 @@
         <v>2300</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>556</v>
+        <v>608</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5137</v>
+        <v>5303</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1486146270678712</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03590956035819646</v>
+        <v>0.0392776860654777</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3319125934774034</v>
+        <v>0.3426531470159362</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -2277,19 +2277,19 @@
         <v>2963</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1128</v>
+        <v>1078</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6090</v>
+        <v>6236</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1540426019404643</v>
+        <v>0.1540426019404642</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05861177674112548</v>
+        <v>0.05604855685245742</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3165878908899471</v>
+        <v>0.3241882336001691</v>
       </c>
     </row>
     <row r="27">
@@ -2381,19 +2381,19 @@
         <v>2269</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>853</v>
+        <v>790</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5063</v>
+        <v>5021</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1475728464921347</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05549919577643412</v>
+        <v>0.05135073173355617</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3292897631433143</v>
+        <v>0.3265185631179519</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -2402,19 +2402,19 @@
         <v>8391</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5110</v>
+        <v>4980</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12698</v>
+        <v>13078</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1772076500610974</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1079255213109347</v>
+        <v>0.1051774473368052</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2681545116949612</v>
+        <v>0.2761875852497174</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>21</v>
@@ -2423,19 +2423,19 @@
         <v>10660</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6973</v>
+        <v>6392</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>16504</v>
+        <v>15463</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1699431538362318</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.111161629463622</v>
+        <v>0.1018943414641384</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.263092410744687</v>
+        <v>0.2465089943357607</v>
       </c>
     </row>
     <row r="29">
@@ -2452,19 +2452,19 @@
         <v>6500</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3432</v>
+        <v>3573</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9678</v>
+        <v>9740</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4226921132398053</v>
+        <v>0.4226921132398054</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2231964019109675</v>
+        <v>0.2323744169386474</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6294051647483013</v>
+        <v>0.6333981952944047</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>28</v>
@@ -2473,19 +2473,19 @@
         <v>14163</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9629</v>
+        <v>9468</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19048</v>
+        <v>19335</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2990904299390438</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2033457854336364</v>
+        <v>0.1999445857258669</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4022673226927945</v>
+        <v>0.4083191475823811</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>37</v>
@@ -2494,19 +2494,19 @@
         <v>20662</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>15715</v>
+        <v>15256</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>27486</v>
+        <v>27657</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3293893978277937</v>
+        <v>0.3293893978277938</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2505211043689401</v>
+        <v>0.2432011486084057</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4381687048844333</v>
+        <v>0.4408912732866342</v>
       </c>
     </row>
     <row r="30">
@@ -2536,19 +2536,19 @@
         <v>2210</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6759</v>
+        <v>6853</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04667939504220842</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.009112756437644195</v>
+        <v>0.008647047532073225</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1427415612818623</v>
+        <v>0.1447344468456234</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2557,19 +2557,19 @@
         <v>2210</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6575</v>
+        <v>6531</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03523669091649984</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.006424362771888652</v>
+        <v>0.006574232060284624</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.104817499561742</v>
+        <v>0.1041082311573849</v>
       </c>
     </row>
     <row r="31">
@@ -2586,19 +2586,19 @@
         <v>2544</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>667</v>
+        <v>738</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5681</v>
+        <v>5549</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.16543132636155</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04336340721255699</v>
+        <v>0.04801209675282248</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3694391749249263</v>
+        <v>0.3608427237056753</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>18</v>
@@ -2607,19 +2607,19 @@
         <v>12424</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7969</v>
+        <v>7634</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>18034</v>
+        <v>18232</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2623851983250975</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1683014274783376</v>
+        <v>0.1612153488362398</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3808431377434</v>
+        <v>0.3850367997220994</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>22</v>
@@ -2628,19 +2628,19 @@
         <v>14968</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>9791</v>
+        <v>9746</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>21012</v>
+        <v>20823</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2386185134801557</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1560885388405704</v>
+        <v>0.1553632403986053</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3349638966851518</v>
+        <v>0.3319445316070062</v>
       </c>
     </row>
     <row r="32">
@@ -2657,19 +2657,19 @@
         <v>4064</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1726</v>
+        <v>1832</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7238</v>
+        <v>7461</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.26430371390651</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.112267593399009</v>
+        <v>0.119164766064563</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4707164265228482</v>
+        <v>0.4852244890218781</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -2678,19 +2678,19 @@
         <v>10164</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6581</v>
+        <v>6510</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14930</v>
+        <v>15167</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2146373266325527</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1389764221352889</v>
+        <v>0.137482653443179</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3153001973777188</v>
+        <v>0.3203109930076976</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>25</v>
@@ -2699,19 +2699,19 @@
         <v>14228</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>9529</v>
+        <v>9414</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>19718</v>
+        <v>19519</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2268122439393187</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1519023064265319</v>
+        <v>0.1500817354547207</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3143308491716217</v>
+        <v>0.3111651353794506</v>
       </c>
     </row>
     <row r="33">
